--- a/Assets/Excel/EnemySO.xlsx
+++ b/Assets/Excel/EnemySO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whals\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F5DF9A-44F7-44DC-B1BF-415DA86A2373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93631FC9-3C01-4D3B-8D4D-0BD7C89DCF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="17700" windowHeight="12670" xr2:uid="{455ECE9B-2510-496F-A311-F491F8B32D03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{455ECE9B-2510-496F-A311-F491F8B32D03}"/>
   </bookViews>
   <sheets>
     <sheet name="enemyList" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -451,18 +439,18 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,9 +473,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -508,9 +496,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -531,9 +519,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>103</v>
+        <v>10003</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -554,9 +542,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -577,9 +565,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>105</v>
+        <v>10005</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -600,9 +588,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>106</v>
+        <v>10006</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
